--- a/Attributes.xlsx
+++ b/Attributes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dzouk\IdeaProjects\kim_pro_frontend\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dzouk\IdeaProjects\kim_pro_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Partner Company" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
   <si>
     <t>company_name</t>
   </si>
@@ -225,9 +225,6 @@
     <t>NIU700</t>
   </si>
   <si>
-    <t>gohze.com</t>
-  </si>
-  <si>
     <t>45456sdfsdf</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>Extra 2</t>
   </si>
   <si>
-    <t>iziway.cm</t>
-  </si>
-  <si>
     <t>Biyem assi Store</t>
   </si>
   <si>
@@ -286,6 +280,36 @@
   </si>
   <si>
     <t>area1</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Pos 007</t>
+  </si>
+  <si>
+    <t>Pos256</t>
+  </si>
+  <si>
+    <t>Tag 1</t>
+  </si>
+  <si>
+    <t>Stock space</t>
+  </si>
+  <si>
+    <t>Area Type 2</t>
+  </si>
+  <si>
+    <t>https://iziway.cm</t>
+  </si>
+  <si>
+    <t>http://gohze.com</t>
+  </si>
+  <si>
+    <t>que faire de usage_type_valid_to_date</t>
   </si>
 </sst>
 </file>
@@ -618,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:I6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,28 +724,28 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>74</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
       </c>
       <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
         <v>76</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>77</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>62</v>
@@ -741,13 +765,14 @@
       <c r="O6" t="s">
         <v>63</v>
       </c>
-      <c r="P6" t="s">
-        <v>79</v>
+      <c r="P6" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J6" r:id="rId1"/>
+    <hyperlink ref="P6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -757,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,19 +876,19 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>62</v>
@@ -882,6 +907,27 @@
       </c>
       <c r="L6" t="s">
         <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -897,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,34 +1078,35 @@
       <c r="O6" t="s">
         <v>63</v>
       </c>
-      <c r="P6" t="s">
-        <v>64</v>
+      <c r="P6" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="Q6">
         <v>847556236</v>
       </c>
       <c r="R6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" t="s">
         <v>65</v>
-      </c>
-      <c r="S6" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J6" r:id="rId1"/>
+    <hyperlink ref="P6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,6 +1147,26 @@
       </c>
       <c r="G5" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>256</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1173,10 +1240,10 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -1185,22 +1252,22 @@
         <v>44774</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
       </c>
       <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
-      </c>
-      <c r="K6" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1212,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1236,6 +1303,9 @@
       <c r="B3" t="s">
         <v>29</v>
       </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -1262,16 +1332,25 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Attributes.xlsx
+++ b/Attributes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dzouk\IdeaProjects\kim_pro_frontend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Gohze\kimpro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Partner Company" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
     <t>company_name</t>
   </si>
@@ -240,9 +240,6 @@
     <t>IT Management</t>
   </si>
   <si>
-    <t>Dzoukov</t>
-  </si>
-  <si>
     <t>It Manager</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Center</t>
   </si>
   <si>
-    <t>Area 1</t>
-  </si>
-  <si>
     <t>area1</t>
   </si>
   <si>
@@ -310,6 +304,15 @@
   </si>
   <si>
     <t>que faire de usage_type_valid_to_date</t>
+  </si>
+  <si>
+    <t>123AB</t>
+  </si>
+  <si>
+    <t>Area R</t>
+  </si>
+  <si>
+    <t>DZK</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,7 +381,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -642,40 +645,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -722,30 +725,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
         <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>62</v>
@@ -766,7 +769,7 @@
         <v>63</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -782,43 +785,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -874,7 +877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -885,10 +888,10 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>62</v>
@@ -909,25 +912,25 @@
         <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
         <v>58</v>
       </c>
       <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s">
         <v>75</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" t="s">
-        <v>77</v>
-      </c>
       <c r="R6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -943,43 +946,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>63</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q6">
         <v>847556236</v>
@@ -1109,27 +1112,27 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -1149,15 +1152,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -1166,7 +1169,7 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1182,31 +1185,31 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -1238,12 +1241,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -1252,22 +1255,22 @@
         <v>44774</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
       </c>
       <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1280,34 +1283,34 @@
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -1330,27 +1333,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1366,14 +1369,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1397,13 +1400,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>49</v>
       </c>
